--- a/data/trans_dic/P1802_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Estudios-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.2330008060322948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2024088836677018</v>
+        <v>0.2024088836677019</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2046772878977562</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1402783132282698</v>
+        <v>0.1425039736676884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1548357143749202</v>
+        <v>0.1562182714763468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2072797558620792</v>
+        <v>0.2048125347540177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.181879028682758</v>
+        <v>0.181346738268308</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1839538509400628</v>
+        <v>0.1849449072300769</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1782401292956411</v>
+        <v>0.1772745354685803</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1942595843589433</v>
+        <v>0.1936420925384132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2122973757582949</v>
+        <v>0.2155211685525936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2618222655993481</v>
+        <v>0.2634530119140291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2232058420553744</v>
+        <v>0.2252934678245285</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2236159141541296</v>
+        <v>0.2257001790798249</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2109271528932152</v>
+        <v>0.2136271340863212</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1226784558220293</v>
+        <v>0.1213206648986418</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1285786908543071</v>
+        <v>0.1305127545683594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1574001916420659</v>
+        <v>0.1573126383904146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1614202327401402</v>
+        <v>0.1624928772473073</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.144183374939536</v>
+        <v>0.1438052933402211</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1514956650733175</v>
+        <v>0.1489889373682881</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1512850967961859</v>
+        <v>0.1525660715241883</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1621219866967461</v>
+        <v>0.1627485300363855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1902397559604541</v>
+        <v>0.193040757987702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.189962593452462</v>
+        <v>0.1924325012845863</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1673447177459718</v>
+        <v>0.1652905255724806</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1725393317538179</v>
+        <v>0.1711971170553164</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1047962716127908</v>
+        <v>0.1061753706058088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1199706267760424</v>
+        <v>0.1231882698365318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1374496677314094</v>
+        <v>0.13268577141644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1785994712962171</v>
+        <v>0.1798653891253655</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1309220700314413</v>
+        <v>0.1277925517545571</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1587074444457246</v>
+        <v>0.1586692922207198</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1669791169728253</v>
+        <v>0.1674836172595696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1760080871689692</v>
+        <v>0.1785027658966563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2028322308769247</v>
+        <v>0.2014206149864628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2312400096277887</v>
+        <v>0.2316127391235727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1755335670858706</v>
+        <v>0.1744199066747348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1973346736888246</v>
+        <v>0.197293476707468</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1889425486378709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1875200466730893</v>
+        <v>0.1875200466730894</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1664974142504582</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1313149304924021</v>
+        <v>0.1312393991386751</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1404446813410604</v>
+        <v>0.1398474189038871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1756725971194917</v>
+        <v>0.1752685042707289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1771069914824646</v>
+        <v>0.1773974768895665</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1580200150740474</v>
+        <v>0.1575876669501945</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1621578427555826</v>
+        <v>0.1618795435612659</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1549895903928998</v>
+        <v>0.1554700529926759</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.163877859129559</v>
+        <v>0.1651644981880901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2015872490768398</v>
+        <v>0.2016988207990416</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1992806143179028</v>
+        <v>0.1993234290688197</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1749478888773401</v>
+        <v>0.1757823224474137</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1788554828419961</v>
+        <v>0.1789204174039205</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105819</v>
+        <v>107497</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>89577</v>
+        <v>90377</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>206173</v>
+        <v>203719</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>149403</v>
+        <v>148966</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>321737</v>
+        <v>323470</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>249531</v>
+        <v>248179</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146539</v>
+        <v>146073</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>122820</v>
+        <v>124685</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>260424</v>
+        <v>262046</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>183351</v>
+        <v>185066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>391106</v>
+        <v>394751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>295292</v>
+        <v>299072</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>254728</v>
+        <v>251908</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>286701</v>
+        <v>291013</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>312959</v>
+        <v>312785</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>350177</v>
+        <v>352504</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>586060</v>
+        <v>584523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>666448</v>
+        <v>655420</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>314126</v>
+        <v>316786</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>361495</v>
+        <v>362892</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>378254</v>
+        <v>383823</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>412096</v>
+        <v>417454</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>680204</v>
+        <v>671854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>759021</v>
+        <v>753117</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57312</v>
+        <v>58066</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>85265</v>
+        <v>87552</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75479</v>
+        <v>72863</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>131127</v>
+        <v>132056</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>143494</v>
+        <v>140064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>229317</v>
+        <v>229262</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91319</v>
+        <v>91594</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>125091</v>
+        <v>126864</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111383</v>
+        <v>110608</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>169775</v>
+        <v>170049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>192390</v>
+        <v>191169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>285130</v>
+        <v>285071</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>443532</v>
+        <v>443277</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>494227</v>
+        <v>492125</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>620493</v>
+        <v>619066</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>659721</v>
+        <v>660803</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1091874</v>
+        <v>1088886</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1174671</v>
+        <v>1172655</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>523496</v>
+        <v>525118</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>576688</v>
+        <v>581216</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>712026</v>
+        <v>712420</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>742318</v>
+        <v>742477</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1208841</v>
+        <v>1214606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1295629</v>
+        <v>1296099</v>
       </c>
     </row>
     <row r="20">
